--- a/FITXA ECONÒMICA.xlsx
+++ b/FITXA ECONÒMICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\APLICACIONS_EXTRA_DOC_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543F3A14-8F8F-4D6C-BA8E-569B71854791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B29090-448E-47FF-8F8D-FC40DC1049E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA ECONÓMICA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t xml:space="preserve">Vº Bº </t>
   </si>
@@ -270,12 +270,6 @@
     <t>Minuta</t>
   </si>
   <si>
-    <t>Adafdsf fdsaf as</t>
-  </si>
-  <si>
-    <t>12345679F</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -430,12 +424,6 @@
   </si>
   <si>
     <t>No funcionario</t>
-  </si>
-  <si>
-    <t>dsafdf fds</t>
-  </si>
-  <si>
-    <t>33333333r</t>
   </si>
   <si>
     <t>online</t>
@@ -993,6 +981,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1003,18 +1000,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1206,10 @@
   <dimension ref="B1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:K18"/>
+      <selection activeCell="C27" sqref="A27:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.5703125" style="1" customWidth="1"/>
@@ -1305,12 +1293,12 @@
       <c r="C10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -1320,151 +1308,151 @@
       <c r="C11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="15" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="52">
         <v>25</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
+      <c r="D17" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="58">
         <v>20</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="54">
         <v>2125</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="23"/>
@@ -1588,7 +1576,7 @@
         <v>399.99990000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="29" t="s">
         <v>38</v>
       </c>
@@ -1617,88 +1605,37 @@
       </c>
     </row>
     <row r="27" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="30">
-        <v>15</v>
-      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="31">
-        <v>90</v>
-      </c>
-      <c r="K27" s="32">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="30">
-        <v>1.5</v>
-      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="31">
-        <v>300</v>
-      </c>
-      <c r="K28" s="32">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="33">
-        <v>1</v>
-      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="33"/>
-      <c r="J29" s="31">
-        <v>90</v>
-      </c>
-      <c r="K29" s="32">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="29"/>
@@ -1730,11 +1667,11 @@
     </row>
     <row r="34" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K34" s="38">
         <f>SUM(K23:K31)</f>
-        <v>5364.9998999999998</v>
+        <v>3474.9998999999998</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,12 +1679,12 @@
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
+      <c r="H37" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
     </row>
     <row r="38" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="39"/>
@@ -1755,7 +1692,7 @@
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J38" s="39"/>
       <c r="K38" s="10"/>
@@ -1821,14 +1758,14 @@
       <c r="G45" s="41"/>
       <c r="H45" s="42"/>
       <c r="I45" s="43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J45" s="43"/>
       <c r="K45" s="14"/>
     </row>
     <row r="47" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
@@ -1840,47 +1777,42 @@
       <c r="K47" s="46"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
+      <c r="C48" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="C48:K50"/>
@@ -1889,6 +1821,11 @@
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
     <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1955,23 +1892,23 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="48"/>
       <c r="J3" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>35</v>
@@ -1979,7 +1916,7 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
@@ -1987,7 +1924,7 @@
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>37</v>
@@ -1995,69 +1932,69 @@
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="48"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
@@ -2065,7 +2002,7 @@
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>34</v>
@@ -2073,10 +2010,10 @@
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,21 +2023,21 @@
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1">
         <v>90</v>
@@ -2108,7 +2045,7 @@
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1">
         <v>300</v>
@@ -2126,7 +2063,7 @@
     </row>
     <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1">
         <v>150</v>
@@ -2142,7 +2079,7 @@
     </row>
     <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" s="1">
         <v>0.26</v>
@@ -2150,7 +2087,7 @@
     </row>
     <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1">
         <v>0.106</v>

--- a/FITXA ECONÒMICA.xlsx
+++ b/FITXA ECONÒMICA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\APLICACIONS_EXTRA_DOC_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alviboi/Documents/crea_designa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B29090-448E-47FF-8F8D-FC40DC1049E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7437B-00A2-D04E-B907-6EA4280B6D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA ECONÓMICA" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t xml:space="preserve">Vº Bº </t>
   </si>
@@ -427,6 +424,12 @@
   </si>
   <si>
     <t>online</t>
+  </si>
+  <si>
+    <t>dsaffas</t>
+  </si>
+  <si>
+    <t>13234234Q</t>
   </si>
 </sst>
 </file>
@@ -865,144 +868,143 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1203,616 +1205,635 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K50"/>
+  <dimension ref="C1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="A27:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="76.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+    <col min="10" max="10" width="35.5" customWidth="1"/>
+    <col min="11" max="11" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H1" s="2" t="s">
+    <row r="1" spans="3:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H2" s="5" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="3:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="3:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="3:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="H3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="3:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H5" s="8"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H6" s="8"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="3:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="3:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="18" t="s">
+      <c r="H4" s="7"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="7"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="7"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="3:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="3:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-    </row>
-    <row r="12" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-    </row>
-    <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="53">
         <v>25</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-    </row>
-    <row r="16" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-    </row>
-    <row r="17" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="21" t="s">
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-    </row>
-    <row r="18" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="21" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="22" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="55">
         <v>20</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-    </row>
-    <row r="20" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+    </row>
+    <row r="20" spans="3:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="50">
         <v>2125</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="3:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="24" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="3:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="29" t="s">
+    <row r="23" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="29">
         <v>15</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31">
+      <c r="I23" s="29"/>
+      <c r="J23" s="30">
         <v>90</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="31">
         <f t="shared" ref="K23:K31" si="0">J23*H23</f>
         <v>1350</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="29" t="s">
+    <row r="24" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="29">
         <v>1.25</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <v>20</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="30">
         <v>300</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="31">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="29" t="s">
+    <row r="25" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="29">
         <v>1.3333330000000001</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31">
+      <c r="I25" s="29"/>
+      <c r="J25" s="30">
         <v>300</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="31">
         <f t="shared" si="0"/>
         <v>399.99990000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="29" t="s">
+    <row r="26" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <v>15</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31">
+      <c r="I26" s="29"/>
+      <c r="J26" s="30">
         <v>90</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="31">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="29"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="29"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="29"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32">
+    <row r="27" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="29">
+        <v>15</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="28"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="28"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+    </row>
+    <row r="30" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="28"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="32">
+    <row r="31" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="15" t="s">
+    <row r="34" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="37">
         <f>SUM(K23:K31)</f>
-        <v>3474.9998999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="55" t="s">
+        <v>4374.9998999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-    </row>
-    <row r="38" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40" t="s">
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+    </row>
+    <row r="38" spans="3:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H44" s="5"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="3:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="43" t="s">
+      <c r="J38" s="38"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="3:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="3:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="3:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="H44" s="4"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="3:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="47" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C47" s="44" t="s">
+      <c r="J45" s="42"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="47" spans="3:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="C47" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="46"/>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="56" t="s">
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="45"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C48" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
     <mergeCell ref="D20:K20"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="C48:K50"/>
@@ -1821,11 +1842,6 @@
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
     <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1892,212 +1908,212 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="J3" s="49" t="s">
+      <c r="F3" s="47"/>
+      <c r="J3" s="48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="48"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="48"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="1">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="1">
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24">
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>0.26</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>0.106</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>65.97</v>
       </c>
     </row>
